--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valentin.n\Documents\CESI\projet réseaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecom\Documents\GitHub\carnofluxe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
-  <si>
-    <t>batiment</t>
-  </si>
-  <si>
-    <t>etage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="98">
   <si>
     <t>Reseau</t>
   </si>
@@ -47,36 +41,12 @@
     <t>broadcast</t>
   </si>
   <si>
-    <t>ouest</t>
-  </si>
-  <si>
-    <t>est</t>
-  </si>
-  <si>
-    <t>central</t>
-  </si>
-  <si>
-    <t>rdc</t>
-  </si>
-  <si>
     <t>192.168.1.0</t>
   </si>
   <si>
     <t>192.168.1.1</t>
   </si>
   <si>
-    <t>192.168.1.7</t>
-  </si>
-  <si>
-    <t>192.168.1.6</t>
-  </si>
-  <si>
-    <t>192.168.1.8</t>
-  </si>
-  <si>
-    <t>192.168.1.9</t>
-  </si>
-  <si>
     <t>192.168.1.15</t>
   </si>
   <si>
@@ -182,60 +152,6 @@
     <t>10.0.0.129</t>
   </si>
   <si>
-    <t>10.0.0.134</t>
-  </si>
-  <si>
-    <t>10.0.0.135</t>
-  </si>
-  <si>
-    <t>10.0.0.136</t>
-  </si>
-  <si>
-    <t>10.0.0.137</t>
-  </si>
-  <si>
-    <t>10.0.0.150</t>
-  </si>
-  <si>
-    <t>10.0.0.151</t>
-  </si>
-  <si>
-    <t>10.0.0.152</t>
-  </si>
-  <si>
-    <t>10.0.0.153</t>
-  </si>
-  <si>
-    <t>10.0.0.166</t>
-  </si>
-  <si>
-    <t>10.0.0.167</t>
-  </si>
-  <si>
-    <t>10.0.0.168</t>
-  </si>
-  <si>
-    <t>10.0.0.169</t>
-  </si>
-  <si>
-    <t>10.0.0.170</t>
-  </si>
-  <si>
-    <t>10.0.0.171</t>
-  </si>
-  <si>
-    <t>routeur 1</t>
-  </si>
-  <si>
-    <t>routeur 2</t>
-  </si>
-  <si>
-    <t>routeur 3</t>
-  </si>
-  <si>
-    <t>routeur3</t>
-  </si>
-  <si>
     <t>172.16.0.0</t>
   </si>
   <si>
@@ -282,6 +198,126 @@
   </si>
   <si>
     <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>CENTRE</t>
+  </si>
+  <si>
+    <t>OUEST</t>
+  </si>
+  <si>
+    <t>RDC</t>
+  </si>
+  <si>
+    <t>Batiment</t>
+  </si>
+  <si>
+    <t>Etage</t>
+  </si>
+  <si>
+    <t>PREMIER</t>
+  </si>
+  <si>
+    <t>Première adresse d'hôte</t>
+  </si>
+  <si>
+    <t>Dernière adresse d'hôte</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>Masque</t>
+  </si>
+  <si>
+    <t>Equipement/Service</t>
+  </si>
+  <si>
+    <t>Switchs</t>
+  </si>
+  <si>
+    <t>10.0.0.174</t>
+  </si>
+  <si>
+    <t>10.0.0.176</t>
+  </si>
+  <si>
+    <t>10.0.0.175</t>
+  </si>
+  <si>
+    <t>routeur C</t>
+  </si>
+  <si>
+    <t>routeur O</t>
+  </si>
+  <si>
+    <t>routeur E</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>S1 RC</t>
+  </si>
+  <si>
+    <t>192.168.1.18</t>
+  </si>
+  <si>
+    <t>10.0.0.158</t>
+  </si>
+  <si>
+    <t>10.0.0.159</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>10.0.0.160</t>
+  </si>
+  <si>
+    <t>10.0.0.161</t>
+  </si>
+  <si>
+    <t>10.0.0.177</t>
+  </si>
+  <si>
+    <t>10.0.0.182</t>
+  </si>
+  <si>
+    <t>10.0.0.183</t>
+  </si>
+  <si>
+    <t>10.0.0.184</t>
+  </si>
+  <si>
+    <t>10.0.0.185</t>
+  </si>
+  <si>
+    <t>10.0.0.190</t>
+  </si>
+  <si>
+    <t>10.0.0.191</t>
+  </si>
+  <si>
+    <t>192.168.1.38</t>
+  </si>
+  <si>
+    <t>192.168.1.39</t>
+  </si>
+  <si>
+    <t>192.168.1.40</t>
+  </si>
+  <si>
+    <t>192.168.1.41</t>
+  </si>
+  <si>
+    <t>10.0.0.192</t>
   </si>
 </sst>
 </file>
@@ -297,12 +333,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -317,8 +365,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,374 +650,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F18" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G18" t="s">
         <v>45</v>
       </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E19" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F19" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G19" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E20" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G20" t="s">
         <v>53</v>
       </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H20" t="s">
         <v>57</v>
       </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
         <v>59</v>
       </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
         <v>79</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F24" t="s">
         <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
